--- a/action-plan/action-plan-2018.xlsx
+++ b/action-plan/action-plan-2018.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
